--- a/data/pca/factorExposure/factorExposure_2016-11-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01796829178380941</v>
+        <v>0.01513133085057881</v>
       </c>
       <c r="C2">
-        <v>-0.0462272640045334</v>
+        <v>-0.04091820849581831</v>
       </c>
       <c r="D2">
-        <v>0.02763917236230753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05835949592917589</v>
+      </c>
+      <c r="E2">
+        <v>-0.02833820967388105</v>
+      </c>
+      <c r="F2">
+        <v>0.09361814419143581</v>
+      </c>
+      <c r="G2">
+        <v>-0.02791594177078802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05685623806163982</v>
+        <v>0.03341153069399656</v>
       </c>
       <c r="C3">
-        <v>-0.09264321218654031</v>
+        <v>-0.08226056363732877</v>
       </c>
       <c r="D3">
-        <v>0.04862521771129542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09690907508846175</v>
+      </c>
+      <c r="E3">
+        <v>-0.03937044913282799</v>
+      </c>
+      <c r="F3">
+        <v>0.06046140609355298</v>
+      </c>
+      <c r="G3">
+        <v>0.06481446325623957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0632927552770078</v>
+        <v>0.05774449396010276</v>
       </c>
       <c r="C4">
-        <v>-0.06250240530821512</v>
+        <v>-0.06158776919693784</v>
       </c>
       <c r="D4">
-        <v>0.00981400721624868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05677183861456579</v>
+      </c>
+      <c r="E4">
+        <v>-0.02266225424645254</v>
+      </c>
+      <c r="F4">
+        <v>0.09141996506781691</v>
+      </c>
+      <c r="G4">
+        <v>0.0401285387653972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02851450132784394</v>
+        <v>0.03502799117533133</v>
       </c>
       <c r="C6">
-        <v>-0.04317563903441297</v>
+        <v>-0.03505710448470994</v>
       </c>
       <c r="D6">
-        <v>0.01741697756481069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06503273705907153</v>
+      </c>
+      <c r="E6">
+        <v>-0.03447640558222723</v>
+      </c>
+      <c r="F6">
+        <v>0.08481487501684182</v>
+      </c>
+      <c r="G6">
+        <v>0.01896641709510489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02304280232454369</v>
+        <v>0.02134353272161209</v>
       </c>
       <c r="C7">
-        <v>-0.03798794959740763</v>
+        <v>-0.03425284363362644</v>
       </c>
       <c r="D7">
-        <v>-0.0108994089468313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03428336333026624</v>
+      </c>
+      <c r="E7">
+        <v>-0.01180507775382524</v>
+      </c>
+      <c r="F7">
+        <v>0.1197932176220261</v>
+      </c>
+      <c r="G7">
+        <v>0.007022161653636901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001077571317767235</v>
+        <v>0.005182307317027015</v>
       </c>
       <c r="C8">
-        <v>-0.01289382427949957</v>
+        <v>-0.01973091393245548</v>
       </c>
       <c r="D8">
-        <v>0.01927787326203171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03610632489657074</v>
+      </c>
+      <c r="E8">
+        <v>-0.01950167444798841</v>
+      </c>
+      <c r="F8">
+        <v>0.06335237445406418</v>
+      </c>
+      <c r="G8">
+        <v>0.009497622111779871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0289808679646019</v>
+        <v>0.03650663582638536</v>
       </c>
       <c r="C9">
-        <v>-0.04187815496189515</v>
+        <v>-0.04780561119323055</v>
       </c>
       <c r="D9">
-        <v>0.00580178818731894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04097145814594241</v>
+      </c>
+      <c r="E9">
+        <v>-0.01819680268199375</v>
+      </c>
+      <c r="F9">
+        <v>0.09682997800691882</v>
+      </c>
+      <c r="G9">
+        <v>0.02326400610083765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07514198286682272</v>
+        <v>0.09692844073813305</v>
       </c>
       <c r="C10">
-        <v>0.1952652147965991</v>
+        <v>0.189607991653708</v>
       </c>
       <c r="D10">
-        <v>0.01258813640506322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001427226318667352</v>
+      </c>
+      <c r="E10">
+        <v>-0.0365382971984865</v>
+      </c>
+      <c r="F10">
+        <v>0.0445735905814159</v>
+      </c>
+      <c r="G10">
+        <v>0.004478257440790236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04267122889245345</v>
+        <v>0.03657104273014638</v>
       </c>
       <c r="C11">
-        <v>-0.05353843112495824</v>
+        <v>-0.05029520717005175</v>
       </c>
       <c r="D11">
-        <v>-0.00483716499212492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02951167502523268</v>
+      </c>
+      <c r="E11">
+        <v>0.007378475905745702</v>
+      </c>
+      <c r="F11">
+        <v>0.06957166396297391</v>
+      </c>
+      <c r="G11">
+        <v>0.01362633644033235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03631907285574411</v>
+        <v>0.03717198441359092</v>
       </c>
       <c r="C12">
-        <v>-0.04465668529199099</v>
+        <v>-0.04561436568317103</v>
       </c>
       <c r="D12">
-        <v>-0.005730283075311687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02266177000954563</v>
+      </c>
+      <c r="E12">
+        <v>-0.0009895393109072771</v>
+      </c>
+      <c r="F12">
+        <v>0.07131208397458359</v>
+      </c>
+      <c r="G12">
+        <v>0.009140329983694712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01043183838280063</v>
+        <v>0.01303237916290253</v>
       </c>
       <c r="C13">
-        <v>-0.04040179274690829</v>
+        <v>-0.04005483093857833</v>
       </c>
       <c r="D13">
-        <v>0.01925251740864179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06350550505834282</v>
+      </c>
+      <c r="E13">
+        <v>-0.03821488603441831</v>
+      </c>
+      <c r="F13">
+        <v>0.1292981994970613</v>
+      </c>
+      <c r="G13">
+        <v>0.01908943760276411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007966959062701576</v>
+        <v>0.006440269084080292</v>
       </c>
       <c r="C14">
-        <v>-0.03244614332366635</v>
+        <v>-0.02759580001922861</v>
       </c>
       <c r="D14">
-        <v>-0.0128663435425366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0284254204922586</v>
+      </c>
+      <c r="E14">
+        <v>-0.01054765703359593</v>
+      </c>
+      <c r="F14">
+        <v>0.101214237001389</v>
+      </c>
+      <c r="G14">
+        <v>-0.00841448063376635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001185064283307176</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0009356554347636842</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001559023984922926</v>
+      </c>
+      <c r="E15">
+        <v>0.0005818545753260808</v>
+      </c>
+      <c r="F15">
+        <v>0.0004328519424178829</v>
+      </c>
+      <c r="G15">
+        <v>-0.001037904571847766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03584834026575778</v>
+        <v>0.03383268554610677</v>
       </c>
       <c r="C16">
-        <v>-0.04009040434986447</v>
+        <v>-0.0438724826810538</v>
       </c>
       <c r="D16">
-        <v>0.001952196686458456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02645601690385556</v>
+      </c>
+      <c r="E16">
+        <v>-0.007385347501232135</v>
+      </c>
+      <c r="F16">
+        <v>0.07405380862464735</v>
+      </c>
+      <c r="G16">
+        <v>-0.0005188788210627191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03079203114464419</v>
+        <v>0.01814323890674616</v>
       </c>
       <c r="C19">
-        <v>-0.06046571283752754</v>
+        <v>-0.04948912469015574</v>
       </c>
       <c r="D19">
-        <v>0.05377733402414627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1040896293850978</v>
+      </c>
+      <c r="E19">
+        <v>-0.05045696429005734</v>
+      </c>
+      <c r="F19">
+        <v>0.1253211735941062</v>
+      </c>
+      <c r="G19">
+        <v>-0.01640924374484909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0149964847054002</v>
+        <v>0.01430861851038401</v>
       </c>
       <c r="C20">
-        <v>-0.04323445302602305</v>
+        <v>-0.03828136329164243</v>
       </c>
       <c r="D20">
-        <v>0.02549251963088089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04603294966215782</v>
+      </c>
+      <c r="E20">
+        <v>-0.0440846132870543</v>
+      </c>
+      <c r="F20">
+        <v>0.09787887256737415</v>
+      </c>
+      <c r="G20">
+        <v>0.002873004950186215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.00953503466521264</v>
+        <v>0.008052517241875968</v>
       </c>
       <c r="C21">
-        <v>-0.04678511305082233</v>
+        <v>-0.04117440584431275</v>
       </c>
       <c r="D21">
-        <v>0.03841840869454258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07049201799725473</v>
+      </c>
+      <c r="E21">
+        <v>-0.04076138918982782</v>
+      </c>
+      <c r="F21">
+        <v>0.1437943494928328</v>
+      </c>
+      <c r="G21">
+        <v>0.002891709775440323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003408652283938455</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01478623107851853</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02971914082497346</v>
+      </c>
+      <c r="E22">
+        <v>-0.004313328550802241</v>
+      </c>
+      <c r="F22">
+        <v>0.01773762535322467</v>
+      </c>
+      <c r="G22">
+        <v>0.03540982406290918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003458352878374307</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01475298518916156</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02944020419050344</v>
+      </c>
+      <c r="E23">
+        <v>-0.004585601984655797</v>
+      </c>
+      <c r="F23">
+        <v>0.01745285275473281</v>
+      </c>
+      <c r="G23">
+        <v>0.03540656840526553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03022457822148446</v>
+        <v>0.03250817588630438</v>
       </c>
       <c r="C24">
-        <v>-0.04626553189231462</v>
+        <v>-0.05041860768793138</v>
       </c>
       <c r="D24">
-        <v>-0.006200216285592392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02417907103409869</v>
+      </c>
+      <c r="E24">
+        <v>-0.002181600466350401</v>
+      </c>
+      <c r="F24">
+        <v>0.07958675432264663</v>
+      </c>
+      <c r="G24">
+        <v>0.006435862527110819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04747504625442901</v>
+        <v>0.04259662443766418</v>
       </c>
       <c r="C25">
-        <v>-0.05705808669174547</v>
+        <v>-0.05715167174761258</v>
       </c>
       <c r="D25">
-        <v>-0.0156804080524061</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02232829490912687</v>
+      </c>
+      <c r="E25">
+        <v>0.0007822956456330228</v>
+      </c>
+      <c r="F25">
+        <v>0.08171954320635164</v>
+      </c>
+      <c r="G25">
+        <v>0.02267193817481933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009919126106416693</v>
+        <v>0.01441112173786562</v>
       </c>
       <c r="C26">
-        <v>-0.01653069712615555</v>
+        <v>-0.01411266180621555</v>
       </c>
       <c r="D26">
-        <v>0.006194187394356164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02340386965633784</v>
+      </c>
+      <c r="E26">
+        <v>-0.01307647776979594</v>
+      </c>
+      <c r="F26">
+        <v>0.0812354870738269</v>
+      </c>
+      <c r="G26">
+        <v>-0.01380116088329363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08918814626868828</v>
+        <v>0.1305134412869056</v>
       </c>
       <c r="C28">
-        <v>0.223675977006312</v>
+        <v>0.2395847781606156</v>
       </c>
       <c r="D28">
-        <v>0.006371995854466201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01729525272380229</v>
+      </c>
+      <c r="E28">
+        <v>-0.03515469543558183</v>
+      </c>
+      <c r="F28">
+        <v>0.05813100285641327</v>
+      </c>
+      <c r="G28">
+        <v>0.01462340078752266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01207674589947311</v>
+        <v>0.007612785308307613</v>
       </c>
       <c r="C29">
-        <v>-0.02536072573001543</v>
+        <v>-0.02337340090104383</v>
       </c>
       <c r="D29">
-        <v>-0.01295617344558719</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01826463408829759</v>
+      </c>
+      <c r="E29">
+        <v>-0.01434509738702559</v>
+      </c>
+      <c r="F29">
+        <v>0.09232706687257278</v>
+      </c>
+      <c r="G29">
+        <v>0.004456483289760888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04543025579043149</v>
+        <v>0.03950043289401804</v>
       </c>
       <c r="C30">
-        <v>-0.06891212427205523</v>
+        <v>-0.05891010518977539</v>
       </c>
       <c r="D30">
-        <v>0.0115121217735597</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09933262463533427</v>
+      </c>
+      <c r="E30">
+        <v>-0.002215514263791915</v>
+      </c>
+      <c r="F30">
+        <v>0.1116274877052284</v>
+      </c>
+      <c r="G30">
+        <v>-0.01740086912832432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04412975016837849</v>
+        <v>0.05551955219007309</v>
       </c>
       <c r="C31">
-        <v>-0.0328577562005039</v>
+        <v>-0.04687505150037947</v>
       </c>
       <c r="D31">
-        <v>-0.01093596607999692</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.001887368447443417</v>
+      </c>
+      <c r="E31">
+        <v>-0.03488179275943718</v>
+      </c>
+      <c r="F31">
+        <v>0.09050932539721568</v>
+      </c>
+      <c r="G31">
+        <v>0.04141319720184053</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006874610483831896</v>
+        <v>0.002775211728259023</v>
       </c>
       <c r="C32">
-        <v>-0.04019179143754761</v>
+        <v>-0.03205058857959973</v>
       </c>
       <c r="D32">
-        <v>0.02229101697803086</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04985306388004036</v>
+      </c>
+      <c r="E32">
+        <v>-0.00293317938348944</v>
+      </c>
+      <c r="F32">
+        <v>0.07285191987085517</v>
+      </c>
+      <c r="G32">
+        <v>-0.009590806697752467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02893208329904626</v>
+        <v>0.02497963670733792</v>
       </c>
       <c r="C33">
-        <v>-0.06066567487142979</v>
+        <v>-0.05117063435781047</v>
       </c>
       <c r="D33">
-        <v>0.01941008126973436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07936552077242724</v>
+      </c>
+      <c r="E33">
+        <v>-0.02085461858348548</v>
+      </c>
+      <c r="F33">
+        <v>0.1413476541895044</v>
+      </c>
+      <c r="G33">
+        <v>0.02065988390110012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05258238303331216</v>
+        <v>0.04193212789000145</v>
       </c>
       <c r="C34">
-        <v>-0.05461770302190811</v>
+        <v>-0.06239058319662074</v>
       </c>
       <c r="D34">
-        <v>-0.0117458830378521</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0299263274988958</v>
+      </c>
+      <c r="E34">
+        <v>0.01550480050484242</v>
+      </c>
+      <c r="F34">
+        <v>0.07674865061644404</v>
+      </c>
+      <c r="G34">
+        <v>0.009183676797585208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.009119061392723154</v>
+        <v>0.01519354665793111</v>
       </c>
       <c r="C36">
-        <v>-0.01236853932262552</v>
+        <v>-0.009442577414696743</v>
       </c>
       <c r="D36">
-        <v>-0.001111397105374145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02438158182035034</v>
+      </c>
+      <c r="E36">
+        <v>-0.01757945826980438</v>
+      </c>
+      <c r="F36">
+        <v>0.09193136413803464</v>
+      </c>
+      <c r="G36">
+        <v>0.01064576922948698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03473043248283451</v>
+        <v>0.02673775337291294</v>
       </c>
       <c r="C38">
-        <v>-0.024513786061138</v>
+        <v>-0.02327177006925529</v>
       </c>
       <c r="D38">
-        <v>-0.00548955173407734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02465051605762617</v>
+      </c>
+      <c r="E38">
+        <v>-0.01943172558760398</v>
+      </c>
+      <c r="F38">
+        <v>0.07914315648200775</v>
+      </c>
+      <c r="G38">
+        <v>0.0085044311160379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04139453246222743</v>
+        <v>0.03802226217055547</v>
       </c>
       <c r="C39">
-        <v>-0.07173170769865432</v>
+        <v>-0.06535416254925694</v>
       </c>
       <c r="D39">
-        <v>0.0109368414887954</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04761336958658213</v>
+      </c>
+      <c r="E39">
+        <v>0.00113556995735247</v>
+      </c>
+      <c r="F39">
+        <v>0.09661618123371651</v>
+      </c>
+      <c r="G39">
+        <v>-0.01794444762346469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01844783381086145</v>
+        <v>0.01793303761154134</v>
       </c>
       <c r="C40">
-        <v>-0.02694114763288002</v>
+        <v>-0.03569317560442079</v>
       </c>
       <c r="D40">
-        <v>0.03056717425995771</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03815631876383885</v>
+      </c>
+      <c r="E40">
+        <v>-0.04780350665975268</v>
+      </c>
+      <c r="F40">
+        <v>0.1088961461016162</v>
+      </c>
+      <c r="G40">
+        <v>0.05054486461864574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01089851154847267</v>
+        <v>0.01847460347748488</v>
       </c>
       <c r="C41">
-        <v>-0.00357673390413737</v>
+        <v>-0.003100854316676899</v>
       </c>
       <c r="D41">
-        <v>-0.004719985674468684</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01801583644912181</v>
+      </c>
+      <c r="E41">
+        <v>-0.02284294673936207</v>
+      </c>
+      <c r="F41">
+        <v>0.08196142070600149</v>
+      </c>
+      <c r="G41">
+        <v>0.002859104115023974</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.005713147096421386</v>
+        <v>0.003183924593210643</v>
       </c>
       <c r="C42">
-        <v>-0.01675624393966426</v>
+        <v>-0.008813803548001781</v>
       </c>
       <c r="D42">
-        <v>0.01975211221024425</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.004880515012010925</v>
+      </c>
+      <c r="E42">
+        <v>-0.0155128304550609</v>
+      </c>
+      <c r="F42">
+        <v>-0.01833060848232486</v>
+      </c>
+      <c r="G42">
+        <v>0.008634311523227982</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03172492198971728</v>
+        <v>0.03097532406276265</v>
       </c>
       <c r="C43">
-        <v>-0.01751023045356544</v>
+        <v>-0.01800330434887016</v>
       </c>
       <c r="D43">
-        <v>-0.002072953112751815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03893580554266741</v>
+      </c>
+      <c r="E43">
+        <v>-0.01886330726680437</v>
+      </c>
+      <c r="F43">
+        <v>0.1012925435353177</v>
+      </c>
+      <c r="G43">
+        <v>0.02519957870802177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02131420038753097</v>
+        <v>0.01571661755139304</v>
       </c>
       <c r="C44">
-        <v>-0.05364603658342025</v>
+        <v>-0.05146925727637449</v>
       </c>
       <c r="D44">
-        <v>0.01083693639671951</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04278071956637437</v>
+      </c>
+      <c r="E44">
+        <v>-0.0373560967981395</v>
+      </c>
+      <c r="F44">
+        <v>0.108396779029371</v>
+      </c>
+      <c r="G44">
+        <v>-0.001972839184869414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0006846437564439696</v>
+        <v>0.00846739734749038</v>
       </c>
       <c r="C46">
-        <v>-0.01978898923943202</v>
+        <v>-0.02139737376260703</v>
       </c>
       <c r="D46">
-        <v>-0.0126001066226423</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01289300576243965</v>
+      </c>
+      <c r="E46">
+        <v>-0.01936450023006501</v>
+      </c>
+      <c r="F46">
+        <v>0.1063477802757666</v>
+      </c>
+      <c r="G46">
+        <v>-0.001679859651461429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07845449028850587</v>
+        <v>0.08646955333319074</v>
       </c>
       <c r="C47">
-        <v>-0.07103884237871914</v>
+        <v>-0.07906879246931914</v>
       </c>
       <c r="D47">
-        <v>-0.007766031590746633</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008458096175892162</v>
+      </c>
+      <c r="E47">
+        <v>-0.04274948675525041</v>
+      </c>
+      <c r="F47">
+        <v>0.08759618017353758</v>
+      </c>
+      <c r="G47">
+        <v>0.04351294747648215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01820001213233965</v>
+        <v>0.01660577991158891</v>
       </c>
       <c r="C48">
-        <v>-0.01219311723636106</v>
+        <v>-0.01448372386447269</v>
       </c>
       <c r="D48">
-        <v>-0.005925834086421638</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01712432247240903</v>
+      </c>
+      <c r="E48">
+        <v>-0.02866562600894557</v>
+      </c>
+      <c r="F48">
+        <v>0.1046710786590328</v>
+      </c>
+      <c r="G48">
+        <v>0.00649071837091637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08764532249812632</v>
+        <v>0.0728901567964856</v>
       </c>
       <c r="C50">
-        <v>-0.06753963724441081</v>
+        <v>-0.068725264764877</v>
       </c>
       <c r="D50">
-        <v>-0.02194471872493903</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0002589394500200248</v>
+      </c>
+      <c r="E50">
+        <v>-0.03746171937938634</v>
+      </c>
+      <c r="F50">
+        <v>0.08138646584536054</v>
+      </c>
+      <c r="G50">
+        <v>0.07329060075970342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01365775966066814</v>
+        <v>0.01057741401122965</v>
       </c>
       <c r="C51">
-        <v>-0.04624577477844171</v>
+        <v>-0.03335296034181964</v>
       </c>
       <c r="D51">
-        <v>0.006540596724632644</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04726443775900904</v>
+      </c>
+      <c r="E51">
+        <v>-0.005327662424102201</v>
+      </c>
+      <c r="F51">
+        <v>0.09317399678937076</v>
+      </c>
+      <c r="G51">
+        <v>-0.01615343597405571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09622090086392476</v>
+        <v>0.09120173305299803</v>
       </c>
       <c r="C53">
-        <v>-0.07448213936056704</v>
+        <v>-0.08656717010562852</v>
       </c>
       <c r="D53">
-        <v>-0.03205439161240532</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03480995131026235</v>
+      </c>
+      <c r="E53">
+        <v>-0.04700140115116685</v>
+      </c>
+      <c r="F53">
+        <v>0.09211150706425084</v>
+      </c>
+      <c r="G53">
+        <v>0.05053257186942511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02956325675224086</v>
+        <v>0.03002703076693429</v>
       </c>
       <c r="C54">
-        <v>-0.01479553461140381</v>
+        <v>-0.02328491830294933</v>
       </c>
       <c r="D54">
-        <v>0.002796484009867295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03274512579065927</v>
+      </c>
+      <c r="E54">
+        <v>-0.01625223428896195</v>
+      </c>
+      <c r="F54">
+        <v>0.1034698344636708</v>
+      </c>
+      <c r="G54">
+        <v>0.00343362340537935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07465542414993791</v>
+        <v>0.08331957727495928</v>
       </c>
       <c r="C55">
-        <v>-0.06851482406435985</v>
+        <v>-0.0692570080726841</v>
       </c>
       <c r="D55">
-        <v>-0.02985082360085378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04179626510107954</v>
+      </c>
+      <c r="E55">
+        <v>-0.04391881104862665</v>
+      </c>
+      <c r="F55">
+        <v>0.06305014230214891</v>
+      </c>
+      <c r="G55">
+        <v>0.04335987899861066</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1527255380585006</v>
+        <v>0.1446993522581143</v>
       </c>
       <c r="C56">
-        <v>-0.0899626108370824</v>
+        <v>-0.1032593897206445</v>
       </c>
       <c r="D56">
-        <v>-0.03074225518707596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04492534022337541</v>
+      </c>
+      <c r="E56">
+        <v>-0.04710544035022568</v>
+      </c>
+      <c r="F56">
+        <v>0.05636134538914516</v>
+      </c>
+      <c r="G56">
+        <v>0.05009846331356469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.006287195261877185</v>
+        <v>0.002800114401733412</v>
       </c>
       <c r="C57">
-        <v>-0.0008177327980503982</v>
+        <v>-0.0003859715150955669</v>
       </c>
       <c r="D57">
-        <v>0.03043958806298171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0212435215410986</v>
+      </c>
+      <c r="E57">
+        <v>-0.0122973046911914</v>
+      </c>
+      <c r="F57">
+        <v>0.01096959929912868</v>
+      </c>
+      <c r="G57">
+        <v>0.0006984045100687558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.07132351907793233</v>
+        <v>0.03966888571596523</v>
       </c>
       <c r="C58">
-        <v>-0.04522543275218009</v>
+        <v>-0.02541789994052549</v>
       </c>
       <c r="D58">
-        <v>0.9566811977458594</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.5975525627901487</v>
+      </c>
+      <c r="E58">
+        <v>-0.6793068933671854</v>
+      </c>
+      <c r="F58">
+        <v>-0.3548446179359373</v>
+      </c>
+      <c r="G58">
+        <v>-0.01206541465397981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1316739042553472</v>
+        <v>0.1465818374570925</v>
       </c>
       <c r="C59">
-        <v>0.2059492524485836</v>
+        <v>0.1922152635743759</v>
       </c>
       <c r="D59">
-        <v>0.01482644439796666</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0258117540381983</v>
+      </c>
+      <c r="E59">
+        <v>-0.01132178552259815</v>
+      </c>
+      <c r="F59">
+        <v>0.02539227866874296</v>
+      </c>
+      <c r="G59">
+        <v>-0.03045432479136531</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3158873663139468</v>
+        <v>0.2840026048377541</v>
       </c>
       <c r="C60">
-        <v>-0.08065192245239799</v>
+        <v>-0.0941810235017197</v>
       </c>
       <c r="D60">
-        <v>0.007923957513425043</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1825644563682728</v>
+      </c>
+      <c r="E60">
+        <v>0.2878517572810964</v>
+      </c>
+      <c r="F60">
+        <v>-0.1425976431860745</v>
+      </c>
+      <c r="G60">
+        <v>0.05098842672195328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03799452953427176</v>
+        <v>0.0404378697392786</v>
       </c>
       <c r="C61">
-        <v>-0.05977960388149221</v>
+        <v>-0.05947174005912487</v>
       </c>
       <c r="D61">
-        <v>0.0101168534812105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04455347099986215</v>
+      </c>
+      <c r="E61">
+        <v>-0.005802680420077868</v>
+      </c>
+      <c r="F61">
+        <v>0.08781740587494605</v>
+      </c>
+      <c r="G61">
+        <v>0.01128679641204311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01597160642633288</v>
+        <v>0.01641772732130832</v>
       </c>
       <c r="C63">
-        <v>-0.03210705836517932</v>
+        <v>-0.02935582886837917</v>
       </c>
       <c r="D63">
-        <v>-0.007874130746226053</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01938937706908985</v>
+      </c>
+      <c r="E63">
+        <v>-0.02153541493815313</v>
+      </c>
+      <c r="F63">
+        <v>0.08501232727889764</v>
+      </c>
+      <c r="G63">
+        <v>0.02758503919457328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04891898153382949</v>
+        <v>0.05325614706941355</v>
       </c>
       <c r="C64">
-        <v>-0.02794078521398981</v>
+        <v>-0.0491641725192797</v>
       </c>
       <c r="D64">
-        <v>-0.009815688484274075</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01347450365880235</v>
+      </c>
+      <c r="E64">
+        <v>-0.007600967187945794</v>
+      </c>
+      <c r="F64">
+        <v>0.09531170574695967</v>
+      </c>
+      <c r="G64">
+        <v>0.001339132446855311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09023993798326983</v>
+        <v>0.06864986815370322</v>
       </c>
       <c r="C65">
-        <v>-0.0495395503985899</v>
+        <v>-0.03843486025385572</v>
       </c>
       <c r="D65">
-        <v>0.01622283628429221</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.07866829782450641</v>
+      </c>
+      <c r="E65">
+        <v>-0.01241719244401643</v>
+      </c>
+      <c r="F65">
+        <v>0.03853570209720252</v>
+      </c>
+      <c r="G65">
+        <v>0.0001340814236743906</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06614246055161373</v>
+        <v>0.05167253357126785</v>
       </c>
       <c r="C66">
-        <v>-0.1072759719572555</v>
+        <v>-0.08936382161601676</v>
       </c>
       <c r="D66">
-        <v>0.01478973919002002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07351898059506683</v>
+      </c>
+      <c r="E66">
+        <v>0.001995090579993268</v>
+      </c>
+      <c r="F66">
+        <v>0.1011096189761898</v>
+      </c>
+      <c r="G66">
+        <v>0.001166270036766945</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05950247107996038</v>
+        <v>0.04912594595360268</v>
       </c>
       <c r="C67">
-        <v>-0.02994893921760846</v>
+        <v>-0.02898006258162252</v>
       </c>
       <c r="D67">
-        <v>-0.01077215993694319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01212193788218399</v>
+      </c>
+      <c r="E67">
+        <v>-0.009427651394229982</v>
+      </c>
+      <c r="F67">
+        <v>0.06324400482179211</v>
+      </c>
+      <c r="G67">
+        <v>0.01233859614555586</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1167185144155823</v>
+        <v>0.1532971404386086</v>
       </c>
       <c r="C68">
-        <v>0.2933847989194681</v>
+        <v>0.2611841709525006</v>
       </c>
       <c r="D68">
-        <v>0.008834632000593175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02015029588806116</v>
+      </c>
+      <c r="E68">
+        <v>-0.03743339818839062</v>
+      </c>
+      <c r="F68">
+        <v>0.02184884753244262</v>
+      </c>
+      <c r="G68">
+        <v>0.005743191933999436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08782158951552345</v>
+        <v>0.08649621693721317</v>
       </c>
       <c r="C69">
-        <v>-0.06789816295942826</v>
+        <v>-0.08325899519047075</v>
       </c>
       <c r="D69">
-        <v>-0.03531837561497938</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007925453526338612</v>
+      </c>
+      <c r="E69">
+        <v>-0.01619463826412571</v>
+      </c>
+      <c r="F69">
+        <v>0.09798149067858836</v>
+      </c>
+      <c r="G69">
+        <v>0.01858907893887224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1181865799556749</v>
+        <v>0.1413752135298526</v>
       </c>
       <c r="C71">
-        <v>0.2445694049338109</v>
+        <v>0.2357199061032158</v>
       </c>
       <c r="D71">
-        <v>0.01592497957690808</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01228350811533938</v>
+      </c>
+      <c r="E71">
+        <v>-0.04366565772318746</v>
+      </c>
+      <c r="F71">
+        <v>0.06501806329554918</v>
+      </c>
+      <c r="G71">
+        <v>0.02692539120493559</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07990542866347768</v>
+        <v>0.08959845044125263</v>
       </c>
       <c r="C72">
-        <v>-0.05111417152960914</v>
+        <v>-0.0547066281460708</v>
       </c>
       <c r="D72">
-        <v>-0.04131646020418618</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008882994193655921</v>
+      </c>
+      <c r="E72">
+        <v>0.01258863326585577</v>
+      </c>
+      <c r="F72">
+        <v>0.08341092106393069</v>
+      </c>
+      <c r="G72">
+        <v>0.02103918032924561</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4435238309112651</v>
+        <v>0.3516777768932762</v>
       </c>
       <c r="C73">
-        <v>-0.06229779873916112</v>
+        <v>-0.07472729337439568</v>
       </c>
       <c r="D73">
-        <v>0.05657056218663444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3761647089143861</v>
+      </c>
+      <c r="E73">
+        <v>0.5041172777387497</v>
+      </c>
+      <c r="F73">
+        <v>-0.326295940651169</v>
+      </c>
+      <c r="G73">
+        <v>0.1067670376521778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1197592728636727</v>
+        <v>0.1122386843901825</v>
       </c>
       <c r="C74">
-        <v>-0.115614147636547</v>
+        <v>-0.1017935593538423</v>
       </c>
       <c r="D74">
-        <v>-0.02914227419619634</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02061355190976083</v>
+      </c>
+      <c r="E74">
+        <v>-0.06377645522315542</v>
+      </c>
+      <c r="F74">
+        <v>0.07358418361557055</v>
+      </c>
+      <c r="G74">
+        <v>0.06785553323401319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2626401572091441</v>
+        <v>0.2550743657072555</v>
       </c>
       <c r="C75">
-        <v>-0.1227015787067813</v>
+        <v>-0.1422695148103166</v>
       </c>
       <c r="D75">
-        <v>-0.0552467948211799</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1118507784078031</v>
+      </c>
+      <c r="E75">
+        <v>-0.1031284092550512</v>
+      </c>
+      <c r="F75">
+        <v>0.02545900402951795</v>
+      </c>
+      <c r="G75">
+        <v>0.06472295313489627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1202268045794574</v>
+        <v>0.1284271888615139</v>
       </c>
       <c r="C76">
-        <v>-0.1040044459325111</v>
+        <v>-0.1054175238091968</v>
       </c>
       <c r="D76">
-        <v>-0.04176471271264819</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05264705635327813</v>
+      </c>
+      <c r="E76">
+        <v>-0.07402999632173929</v>
+      </c>
+      <c r="F76">
+        <v>0.07502978025430962</v>
+      </c>
+      <c r="G76">
+        <v>0.05237556919394729</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07622376712918835</v>
+        <v>0.06425274188232694</v>
       </c>
       <c r="C77">
-        <v>-0.05479838442395193</v>
+        <v>-0.06640527713590023</v>
       </c>
       <c r="D77">
-        <v>0.038247448420976</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0604658724477186</v>
+      </c>
+      <c r="E77">
+        <v>-0.04498083267739422</v>
+      </c>
+      <c r="F77">
+        <v>0.1132250876196151</v>
+      </c>
+      <c r="G77">
+        <v>-0.1291798470789777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04455166185782508</v>
+        <v>0.04136157771755296</v>
       </c>
       <c r="C78">
-        <v>-0.04415584230061778</v>
+        <v>-0.05346359630733875</v>
       </c>
       <c r="D78">
-        <v>0.00612177755129144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06350052281359887</v>
+      </c>
+      <c r="E78">
+        <v>0.01102425171797402</v>
+      </c>
+      <c r="F78">
+        <v>0.1036617451966674</v>
+      </c>
+      <c r="G78">
+        <v>0.00499586592499307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01156189825847757</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.03312928841263553</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04041389765556629</v>
+      </c>
+      <c r="E79">
+        <v>-0.03892464762957532</v>
+      </c>
+      <c r="F79">
+        <v>0.02405211004574809</v>
+      </c>
+      <c r="G79">
+        <v>0.03765435129325234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05094684552575415</v>
+        <v>0.03734796943117518</v>
       </c>
       <c r="C80">
-        <v>-0.05077280245792756</v>
+        <v>-0.04705914971408102</v>
       </c>
       <c r="D80">
-        <v>0.03112888914451838</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04765917977838353</v>
+      </c>
+      <c r="E80">
+        <v>-0.005580124385992731</v>
+      </c>
+      <c r="F80">
+        <v>0.03995900725805716</v>
+      </c>
+      <c r="G80">
+        <v>-0.04215096791226881</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1377808884321853</v>
+        <v>0.1404212448627725</v>
       </c>
       <c r="C81">
-        <v>-0.0816508078024325</v>
+        <v>-0.09755459621826917</v>
       </c>
       <c r="D81">
-        <v>-0.03164455750516788</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.08015509154090163</v>
+      </c>
+      <c r="E81">
+        <v>-0.08940798362989111</v>
+      </c>
+      <c r="F81">
+        <v>0.03513776885385997</v>
+      </c>
+      <c r="G81">
+        <v>0.05376475195519823</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.0712682103578141</v>
+        <v>0.1909492609101713</v>
       </c>
       <c r="C82">
-        <v>-0.04449229436960948</v>
+        <v>-0.1374723971067398</v>
       </c>
       <c r="D82">
-        <v>-0.02581210525538254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.218120152879426</v>
+      </c>
+      <c r="E82">
+        <v>-0.03483549207718982</v>
+      </c>
+      <c r="F82">
+        <v>0.06312701803533134</v>
+      </c>
+      <c r="G82">
+        <v>0.01903656009405865</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02792289447837393</v>
+        <v>0.02723246578370424</v>
       </c>
       <c r="C83">
-        <v>-0.01887740124056525</v>
+        <v>-0.03515143120175138</v>
       </c>
       <c r="D83">
-        <v>0.01869251853885032</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03436779258116356</v>
+      </c>
+      <c r="E83">
+        <v>0.001275216416024485</v>
+      </c>
+      <c r="F83">
+        <v>0.05167797295342717</v>
+      </c>
+      <c r="G83">
+        <v>-0.02535684913394729</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2420210757616744</v>
+        <v>0.2081281210018882</v>
       </c>
       <c r="C85">
-        <v>-0.1154522699130808</v>
+        <v>-0.1249229443931315</v>
       </c>
       <c r="D85">
-        <v>-0.1246566847545468</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1044598305723829</v>
+      </c>
+      <c r="E85">
+        <v>-0.02816062144904458</v>
+      </c>
+      <c r="F85">
+        <v>-0.01804809894085725</v>
+      </c>
+      <c r="G85">
+        <v>0.1118753072333434</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01045531469851358</v>
+        <v>0.0125306600977371</v>
       </c>
       <c r="C86">
-        <v>-0.02637323498823686</v>
+        <v>-0.03164364172203456</v>
       </c>
       <c r="D86">
-        <v>0.03240582888806513</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07385240122543989</v>
+      </c>
+      <c r="E86">
+        <v>-0.01839413566631001</v>
+      </c>
+      <c r="F86">
+        <v>0.1513996628868187</v>
+      </c>
+      <c r="G86">
+        <v>-0.01107637331494005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01432434495586019</v>
+        <v>0.02036601823556386</v>
       </c>
       <c r="C87">
-        <v>-0.02325882329640681</v>
+        <v>-0.0178201470755233</v>
       </c>
       <c r="D87">
-        <v>0.08365502822732529</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0964410325424671</v>
+      </c>
+      <c r="E87">
+        <v>-0.05954931982838502</v>
+      </c>
+      <c r="F87">
+        <v>0.107679416350646</v>
+      </c>
+      <c r="G87">
+        <v>-0.03555458925187309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.102122980403509</v>
+        <v>0.08905416142630976</v>
       </c>
       <c r="C88">
-        <v>-0.07414453775175671</v>
+        <v>-0.06254021906628293</v>
       </c>
       <c r="D88">
-        <v>-0.01939486244870273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01231166196634235</v>
+      </c>
+      <c r="E88">
+        <v>-0.01787193268211574</v>
+      </c>
+      <c r="F88">
+        <v>0.07585042324927829</v>
+      </c>
+      <c r="G88">
+        <v>-0.0318052939228921</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1881206715578336</v>
+        <v>0.2207006358375027</v>
       </c>
       <c r="C89">
-        <v>0.3773314453819031</v>
+        <v>0.3821629599538536</v>
       </c>
       <c r="D89">
-        <v>-0.01901167699855729</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02190199718161114</v>
+      </c>
+      <c r="E89">
+        <v>-0.02629101624457165</v>
+      </c>
+      <c r="F89">
+        <v>0.09376783637156919</v>
+      </c>
+      <c r="G89">
+        <v>-0.07309168028237975</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.172861362123686</v>
+        <v>0.2008695425222208</v>
       </c>
       <c r="C90">
-        <v>0.3510180558063478</v>
+        <v>0.3195808251474786</v>
       </c>
       <c r="D90">
-        <v>0.004443452377838318</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01712447383720446</v>
+      </c>
+      <c r="E90">
+        <v>-0.05226267927708456</v>
+      </c>
+      <c r="F90">
+        <v>0.056595393080513</v>
+      </c>
+      <c r="G90">
+        <v>-0.01306190519339287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2022853621451058</v>
+        <v>0.1924225285932959</v>
       </c>
       <c r="C91">
-        <v>-0.1129088409905366</v>
+        <v>-0.1387223331686951</v>
       </c>
       <c r="D91">
-        <v>-0.05326371706420204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0949359551300752</v>
+      </c>
+      <c r="E91">
+        <v>-0.08536671219448939</v>
+      </c>
+      <c r="F91">
+        <v>0.04964053413879511</v>
+      </c>
+      <c r="G91">
+        <v>0.05256567219640834</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1682071752053962</v>
+        <v>0.1828100147389188</v>
       </c>
       <c r="C92">
-        <v>0.2815239535676035</v>
+        <v>0.2788681940087763</v>
       </c>
       <c r="D92">
-        <v>-0.007311010428759637</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.005978972543201256</v>
+      </c>
+      <c r="E92">
+        <v>-0.07241032598332038</v>
+      </c>
+      <c r="F92">
+        <v>0.07558238115281776</v>
+      </c>
+      <c r="G92">
+        <v>-0.01750005289231647</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.192959719838574</v>
+        <v>0.2230052684016714</v>
       </c>
       <c r="C93">
-        <v>0.3421044720386863</v>
+        <v>0.3199859945074408</v>
       </c>
       <c r="D93">
-        <v>-0.004152014694725518</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.007666938247851454</v>
+      </c>
+      <c r="E93">
+        <v>-0.03746450284255883</v>
+      </c>
+      <c r="F93">
+        <v>0.06012322449365837</v>
+      </c>
+      <c r="G93">
+        <v>0.02831042920781109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2816340666201472</v>
+        <v>0.3422511638655637</v>
       </c>
       <c r="C94">
-        <v>-0.152110199833991</v>
+        <v>-0.1964692013691243</v>
       </c>
       <c r="D94">
-        <v>-0.1190944298660856</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4419952720323669</v>
+      </c>
+      <c r="E94">
+        <v>-0.2506223667416855</v>
+      </c>
+      <c r="F94">
+        <v>-0.4277979596882737</v>
+      </c>
+      <c r="G94">
+        <v>-0.2558817343074505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.09312649888705854</v>
+        <v>0.08372863041494212</v>
       </c>
       <c r="C95">
-        <v>-0.07415854278222367</v>
+        <v>-0.07572325365446257</v>
       </c>
       <c r="D95">
-        <v>0.06798708964566241</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1421070175096992</v>
+      </c>
+      <c r="E95">
+        <v>0.1295397330629998</v>
+      </c>
+      <c r="F95">
+        <v>0.1182759128064437</v>
+      </c>
+      <c r="G95">
+        <v>-0.901917045555681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2079563221589216</v>
+        <v>0.190764975594427</v>
       </c>
       <c r="C98">
-        <v>-0.02037106117444097</v>
+        <v>-0.03693260432896524</v>
       </c>
       <c r="D98">
-        <v>0.04553777087723759</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1597996744829763</v>
+      </c>
+      <c r="E98">
+        <v>0.1651761332233545</v>
+      </c>
+      <c r="F98">
+        <v>-0.05472574366892079</v>
+      </c>
+      <c r="G98">
+        <v>0.1024726277211726</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01175561155552495</v>
+        <v>0.007424920275334897</v>
       </c>
       <c r="C101">
-        <v>-0.02549440143546465</v>
+        <v>-0.02335459661861692</v>
       </c>
       <c r="D101">
-        <v>-0.01316039579172195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01781461232586794</v>
+      </c>
+      <c r="E101">
+        <v>-0.01485223490527095</v>
+      </c>
+      <c r="F101">
+        <v>0.09204904371383135</v>
+      </c>
+      <c r="G101">
+        <v>0.003441697309245925</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1231191941336372</v>
+        <v>0.1238339190561431</v>
       </c>
       <c r="C102">
-        <v>-0.07336864993774456</v>
+        <v>-0.09829297924092015</v>
       </c>
       <c r="D102">
-        <v>-0.02967247338358758</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04642493246458061</v>
+      </c>
+      <c r="E102">
+        <v>-0.002214254478106008</v>
+      </c>
+      <c r="F102">
+        <v>0.02818267581184588</v>
+      </c>
+      <c r="G102">
+        <v>0.01401427194214497</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
